--- a/predbezny plan.xlsx
+++ b/predbezny plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuniba-my.sharepoint.com/personal/drahos18_uniba_sk/Documents/skola/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuniba-my.sharepoint.com/personal/drahos18_uniba_sk/Documents/DP Microfrontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{208E9C16-B041-4FD0-8D7A-525CD64C6EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B2ACD73-0BE6-404E-8CDA-1799E7471E59}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{208E9C16-B041-4FD0-8D7A-525CD64C6EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A58A09D9-9B77-4B91-9563-470899921261}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{80E78424-D56B-423D-A90A-6105D2F6A0CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Týždeň</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Vytvorenie plánu na semester</t>
   </si>
   <si>
-    <t>Vyhľadávanie a štúdium "šedej" literatúry - blogy, tutorialy atd. dostupnej na internete</t>
-  </si>
-  <si>
     <t>Vyhľadávanie a štúdium vedeckej literatúry - clanky v casopisoch, prispevky z konferencii...</t>
   </si>
   <si>
@@ -65,19 +62,25 @@
     <t>Finálna kontrola všetkých podmienok pred záverečnou prezentáciou, príprava prezentácie</t>
   </si>
   <si>
-    <t>Rozšírenie prototypu o názornú ukážku riešených problémov</t>
-  </si>
-  <si>
     <t>Štúdium poskytnutej literatúry - získanie všeobecného prehľadu v oblasti</t>
   </si>
   <si>
-    <t>Výber prístupu k implementácii prototypu</t>
-  </si>
-  <si>
-    <t>Návrh overenia riešeného problému</t>
-  </si>
-  <si>
-    <t>Vytvorenie návrhu prototypu - volba technologií</t>
+    <t>Výber prístupu k implementácii prototypu; Vytvorenie návrhu prototypu - volba technologií</t>
+  </si>
+  <si>
+    <t>Zapracovanie priponiek</t>
+  </si>
+  <si>
+    <t>Spracovanie priebeznych poznamok do tela prace, studium literatury</t>
+  </si>
+  <si>
+    <t>Vytvorenie osnovy prace, uprava LaTeX dokumentu, studium literatury</t>
+  </si>
+  <si>
+    <t>Rozšírenie prototypu o názornú ukážku vybraných problémov</t>
+  </si>
+  <si>
+    <t>Rozpísanie kapitoly o otvorených problémoch</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +490,7 @@
         <v>45354</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,7 +532,7 @@
         <v>45375</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,7 +546,7 @@
         <v>45382</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,7 +560,7 @@
         <v>45389</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,7 +574,7 @@
         <v>45396</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,7 +588,7 @@
         <v>45403</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,7 +602,7 @@
         <v>45410</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,7 +616,7 @@
         <v>45417</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,7 +630,7 @@
         <v>45424</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +644,7 @@
         <v>45431</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
